--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
+    <sheet name="Usernames and Passwords" sheetId="3" r:id="rId2"/>
+    <sheet name="Button Texts" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,12 +21,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>https://qa-interview.united.cloud/</t>
-  </si>
-  <si>
-    <t>Home URL:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>natasa.djuricic</t>
+  </si>
+  <si>
+    <t>Lozinka123</t>
+  </si>
+  <si>
+    <t>https://qa-interview.united.cloud/choose-profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create New Button Text: </t>
+  </si>
+  <si>
+    <t>Create new profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Page valid username: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Page valid Password: </t>
+  </si>
+  <si>
+    <t>https://qa-interview.united.cloud/login</t>
+  </si>
+  <si>
+    <t>Home Page URL:</t>
+  </si>
+  <si>
+    <t>Choose Profile Page URL:</t>
   </si>
 </sst>
 </file>
@@ -343,28 +369,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>natasa.djuricic</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Choose Profile Page URL:</t>
+  </si>
+  <si>
+    <t>https://qa-interview.united.cloud/create-profile</t>
+  </si>
+  <si>
+    <t>Create Profile Page URL:</t>
   </si>
 </sst>
 </file>
@@ -369,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -396,6 +402,14 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
     <sheet name="Usernames and Passwords" sheetId="3" r:id="rId2"/>
     <sheet name="Button Texts" sheetId="2" r:id="rId3"/>
+    <sheet name="Profile Names" sheetId="4" r:id="rId4"/>
+    <sheet name="Birth Years" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>natasa.djuricic</t>
   </si>
@@ -57,6 +59,18 @@
   </si>
   <si>
     <t>Create Profile Page URL:</t>
+  </si>
+  <si>
+    <t>Natasa</t>
+  </si>
+  <si>
+    <t>Valid Names</t>
+  </si>
+  <si>
+    <t>Valid Years:</t>
+  </si>
+  <si>
+    <t>1977</t>
   </si>
 </sst>
 </file>
@@ -377,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -480,4 +494,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>natasa.djuricic</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>1977</t>
+  </si>
+  <si>
+    <t>Delete Profile Page URL</t>
+  </si>
+  <si>
+    <t>https://qa-interview.united.cloud/</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,6 +430,14 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
